--- a/数据整理/stocks/A股/上证主板/600598-北大荒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600598-北大荒.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.44</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.92</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2981</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.69</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.48</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008929</t>
+          <t>510170</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
+          <t>国联安上证大宗商品股票ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.25</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.53</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>510170</t>
+          <t>008929</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国联安上证大宗商品股票ETF</t>
+          <t>泰达宏利中证主要消费红利指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.72</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.24</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501089</t>
+          <t>001195</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
+          <t>工银瑞信农业产业股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001195</t>
+          <t>008928</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信农业产业股票</t>
+          <t>泰达宏利中证主要消费红利指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -762,25 +862,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008928</t>
+          <t>008929</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数A</t>
+          <t>泰达宏利中证主要消费红利指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.92</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.12</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -790,25 +900,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008929</t>
+          <t>501089</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰达宏利中证主要消费红利指数C</t>
+          <t>方正富邦中证主要消费红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>3.12</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600598-北大荒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600598-北大荒.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600598-北大荒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600598-北大荒.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2330</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="3">
@@ -991,13 +1086,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600598-北大荒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600598-北大荒.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,17 +1051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1070,14 +1091,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
+          <t>002434</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1086,14 +1129,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.32</v>
+          <t>002535</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1102,13 +1167,477 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>003966</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006952</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银景元回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>33.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003967</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银润利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002435</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银宏利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002536</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002288</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银稳进策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>66.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600598-北大荒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600598-北大荒.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.37</v>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.23</v>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.32</v>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1631,13 +1718,149 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600598-北大荒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600598-北大荒.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.37</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>163110</t>
+          <t>003242</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
+          <t>创金合信量化发现灵活配置混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>92.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0813</t>
+          <t>0.0062</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -660,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013472</t>
+          <t>003241</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝中证全指农牧渔指数C</t>
+          <t>创金合信量化发现灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.59</t>
+          <t>92.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0050</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -698,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013471</t>
+          <t>013472</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝中证全指农牧渔指数A</t>
+          <t>华宝中证全指农牧渔指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.59</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -736,34 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013918</t>
+          <t>013471</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票（LOF）C</t>
+          <t>华宝中证全指农牧渔指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -772,6 +791,212 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1283,7 +1508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1377,7 +1602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,7 +1810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600598-北大荒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600598-北大荒.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.37</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.32</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003242</t>
+          <t>090003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信量化发现灵活配置混合C</t>
+          <t>大成蓝筹稳健混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>12.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.08</t>
+          <t>93.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0062</t>
+          <t>0.6439</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003241</t>
+          <t>008928</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信量化发现灵活配置混合A</t>
+          <t>泰达宏利中证主要消费红利指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.08</t>
+          <t>93.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0050</t>
+          <t>0.1047</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013472</t>
+          <t>007657</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝中证全指农牧渔指数C</t>
+          <t>东方红中证竞争力指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0044</t>
+          <t>0.0949</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +770,226 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>159610</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008929</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利中证主要消费红利指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501089</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>方正富邦消费红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>013471</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>华宝中证全指农牧渔指数A</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>0.0035</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>9</v>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -847,36 +1054,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>163110</t>
+          <t>003242</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票(LOF)</t>
+          <t>创金合信量化发现灵活配置混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>92.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0813</t>
+          <t>0.0062</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -885,36 +1092,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013472</t>
+          <t>003241</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝中证全指农牧渔指数C</t>
+          <t>创金合信量化发现灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.59</t>
+          <t>92.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0050</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -923,36 +1130,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>013471</t>
+          <t>013472</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝中证全指农牧渔指数A</t>
+          <t>华宝中证全指农牧渔指数C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.59</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -961,34 +1168,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013918</t>
+          <t>013471</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>申万菱信量化小盘股票（LOF）C</t>
+          <t>华宝中证全指农牧渔指数A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.36</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -997,6 +1206,212 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013472</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013471</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证全指农牧渔指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1508,7 +1923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1602,7 +2017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1810,7 +2225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
